--- a/answer6.xlsx
+++ b/answer6.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>658.3237599999995</v>
+        <v>661.5852999999989</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>927.3781733333331</v>
+        <v>969.7151399999998</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>348.3067599999999</v>
+        <v>283.2362933333333</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>924.3750799999997</v>
+        <v>843.8905066666666</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>386.0325533333333</v>
+        <v>366.09266</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>468.3927533333334</v>
+        <v>529.4477800000001</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>573.3562400000004</v>
+        <v>650.0865399999999</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>419.8600719999999</v>
+        <v>352.87978</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>379.9202057142857</v>
+        <v>475.4127266666665</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>375.9218066666667</v>
+        <v>355.1333599999999</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>286.7641733333334</v>
+        <v>322.0756495238096</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>274.55422</v>
+        <v>255.9590933333333</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>200.1553</v>
+        <v>199.60372</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>952.49296</v>
+        <v>896.7284800000007</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>345.27968</v>
+        <v>301.5471066666668</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>741.9636000000002</v>
+        <v>780.1926599999999</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>332.9066999999997</v>
+        <v>333.164104</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>922.5508400000001</v>
+        <v>976.6205800000002</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>528.5112400000002</v>
+        <v>422.4628016666671</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>369.7768800000001</v>
+        <v>345.3520266666666</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>348.35896</v>
+        <v>365.2936333333333</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>332.8564266666665</v>
+        <v>340.2741199999999</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>437.6476200000001</v>
+        <v>439.9903933333335</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>764.0520866666667</v>
+        <v>831.1464799999999</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>341.9475013333333</v>
+        <v>343.1375866666666</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>420.7675763333336</v>
+        <v>423.0833106666665</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>424.6763843333327</v>
+        <v>431.0252866666667</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>164.6164</v>
+        <v>140.0291633333333</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>342.6154533333333</v>
+        <v>326.0241870476191</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>495.2228400000004</v>
+        <v>454.5157399999993</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>264.26354</v>
+        <v>281.3579599999999</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>276.1481733333333</v>
+        <v>280.93064</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>257.5423266666666</v>
+        <v>209.5021466666667</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>183.4484666666667</v>
+        <v>186.41604</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1047.93496</v>
+        <v>1053.09306</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>300.5727166666667</v>
+        <v>359.9188666666666</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>438.52476</v>
+        <v>459.8414900000001</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>157.63565</v>
+        <v>169.8799599999999</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>1867.093740000001</v>
+        <v>2049.946637333334</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>408.0595933333334</v>
+        <v>423.204084</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>513.5162946666669</v>
+        <v>534.1391800000004</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>760.5969200000002</v>
+        <v>775.56102</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>372.766216</v>
+        <v>367.8663000000004</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>458.4380495238095</v>
+        <v>446.8185599999999</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>276.64108</v>
+        <v>289.71777</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>250.17068</v>
+        <v>271.1594333333333</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>890.4578999999999</v>
+        <v>881.7917561904762</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>402.2903133333335</v>
+        <v>409.0246999999999</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>430.7362199999994</v>
+        <v>464.4009400000001</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>805.2455199999999</v>
+        <v>787.3649399999997</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>381.2444199999999</v>
+        <v>374.3753800000001</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>609.1422000000003</v>
+        <v>549.4942200000003</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>262.4267466666668</v>
+        <v>265.19348</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>309.1716466666668</v>
+        <v>277.8465304761905</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>687.2423599999997</v>
+        <v>856.5799933333334</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>818.74764</v>
+        <v>796.8800799999999</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>358.93932</v>
+        <v>437.8249799999998</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1449.79622</v>
+        <v>1384.48798</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>366.3654528571428</v>
+        <v>325.339768</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>264.7259333333333</v>
+        <v>227.84726</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>286.63046</v>
+        <v>322.5498133333334</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>399.423112761905</v>
+        <v>473.7879599999997</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>325.6684919999998</v>
+        <v>355.0926133333333</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>448.0723866666663</v>
+        <v>494.5420800000002</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>452.7600850000002</v>
+        <v>396.0163700000009</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>401.7431263333334</v>
+        <v>366.10612</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>441.0108200000001</v>
+        <v>463.5497</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>360.8441933333333</v>
+        <v>405.5319466666667</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>240.7773666666666</v>
+        <v>241.8065466666667</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>844.3751200000002</v>
+        <v>906.21612</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>218.9113666666667</v>
+        <v>240.81078</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>273.95966</v>
+        <v>243.9830257142857</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>560.8843400000002</v>
+        <v>506.3821</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>482.1335599999999</v>
+        <v>506.3925600000001</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>272.6597200000002</v>
+        <v>298.759</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>236.79854</v>
+        <v>243.1609866666667</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>328.8060266666668</v>
+        <v>315.1638939999999</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>609.22074</v>
+        <v>588.6895400000004</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>275.9997066666665</v>
+        <v>300.1058333333334</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>320.5259697142852</v>
+        <v>305.8456633333333</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>326.1132666666665</v>
+        <v>363.5769400000001</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>401.7394266666668</v>
+        <v>403.5506000000005</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>413.2632399999999</v>
+        <v>410.3815733333337</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>879.7534485714284</v>
+        <v>1000.63884</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>342.3188413333333</v>
+        <v>337.16146</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>960.1588599999999</v>
+        <v>929.5849599999999</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>418.0986695238096</v>
+        <v>453.8858200000001</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>239.6621666666666</v>
+        <v>238.59128</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>654.9436999999998</v>
+        <v>608.5241999999997</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>239.7692066666666</v>
+        <v>238.37762</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>635.6487399999997</v>
+        <v>567.4570199999999</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>309.92678</v>
+        <v>275.8815733333333</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>417.0984416666669</v>
+        <v>422.5006834285708</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>237.7123809523808</v>
+        <v>246.62994</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>350.5908959999995</v>
+        <v>349.5363333333332</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>670.3185599999999</v>
+        <v>673.43972</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>967.2806999999999</v>
+        <v>985.6406599999999</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>137.59</v>
+        <v>121.08386</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>365.7346400000003</v>
+        <v>358.23812</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>220.75946</v>
+        <v>183.00784</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>850.4982000000002</v>
+        <v>850.8554200000002</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>325.9425931428572</v>
+        <v>302.9202116666666</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>745.8549999999998</v>
+        <v>699.39232</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>274.5875199999999</v>
+        <v>305.00832</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>756.5825399999999</v>
+        <v>646.8858199999995</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>464.64214</v>
+        <v>452.3156800000001</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>398.7606930000001</v>
+        <v>407.0359600000001</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>849.0027</v>
+        <v>854.0898733333335</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>805.2091000000001</v>
+        <v>814.69918</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>378.0280800000002</v>
+        <v>346.3987866666668</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>507.614786666667</v>
+        <v>551.5560200000002</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>238.6941809523809</v>
+        <v>252.66482</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>204.7395</v>
+        <v>203.9202599999998</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>361.6355533333335</v>
+        <v>326.2746133333334</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>251.3771866666667</v>
+        <v>277.3632526666667</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>232.87986</v>
+        <v>219.4263266666666</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>341.9486000000002</v>
+        <v>331.82894</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>364.0064800000001</v>
+        <v>346.4019733333333</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>380.5629200000005</v>
+        <v>339.7647279999999</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>578.3806000000001</v>
+        <v>491.9319800000004</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>671.7449199999991</v>
+        <v>609.25324</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>254.1191933333333</v>
+        <v>264.1741</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>606.8939600000001</v>
+        <v>605.9104000000001</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>910.8043366666658</v>
+        <v>1082.05214</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>303.357693333333</v>
+        <v>326.3330523809522</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>742.8802999999997</v>
+        <v>651.8665799999999</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>290.54926</v>
+        <v>323.5889276190474</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>396.0130850000007</v>
+        <v>437.6641549999999</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>933.16788</v>
+        <v>1059.072224</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>368.3334028571429</v>
+        <v>359.1643400000001</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>941.8684266666666</v>
+        <v>958.2028</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>504.083186666667</v>
+        <v>695.9313999999999</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>478.7912633333332</v>
+        <v>477.9359400000001</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>863.3636000000001</v>
+        <v>850.4012799999999</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>230.9783666666667</v>
+        <v>243.666559047619</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>317.9589466666665</v>
+        <v>315.8303789999999</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>503.5321845238095</v>
+        <v>479.4970999999996</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>378.9901866666668</v>
+        <v>332.6834266666667</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>242.6662533333333</v>
+        <v>213.9198933333333</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>379.6467000000001</v>
+        <v>406.3523646666667</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>199.29112</v>
+        <v>215.3917999999999</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>270.8881333333333</v>
+        <v>289.44338</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1033.971059999999</v>
+        <v>1045.894659999999</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>400.3496766666667</v>
+        <v>386.8131840000002</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>789.7964800000002</v>
+        <v>774.6893066666665</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>856.6563866666665</v>
+        <v>1102.49212</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>368.95588</v>
+        <v>415.3821980000001</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>578.7665800000002</v>
+        <v>592.2443199999999</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>125.3924999999999</v>
+        <v>111.9501</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>292.4521729999999</v>
+        <v>383.0950296666666</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>383.2960600000003</v>
+        <v>324.8092533333333</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>153.7427113333333</v>
+        <v>136.7800416666666</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>342.77108</v>
+        <v>425.7027166666667</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>377.2807638095236</v>
+        <v>394.2166536666667</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>613.1609</v>
+        <v>633.04062</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>309.0508683333333</v>
+        <v>264.1430123809524</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>406.9933840000001</v>
+        <v>372.7885240000001</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>230.6429599999999</v>
+        <v>283.63606</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>473.2750559999996</v>
+        <v>406.7732349999999</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>629.9021399999998</v>
+        <v>728.75852</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>325.18982</v>
+        <v>258.46224</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>342.3671866666668</v>
+        <v>372.6879800000002</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>724.8061800000005</v>
+        <v>711.1181599999999</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>908.7480885714284</v>
+        <v>804.3645066666667</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>777.8238400000001</v>
+        <v>748.51378</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>749.2260599999997</v>
+        <v>794.37474</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>558.0703800000001</v>
+        <v>498.7639000000004</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>373.6337786666666</v>
+        <v>309.35028</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>499.7494800000005</v>
+        <v>565.8550200000002</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>297.56908</v>
+        <v>303.4706399999999</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>452.6062000000004</v>
+        <v>437.2372400000003</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>279.1843371428571</v>
+        <v>274.9629933333334</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>319.6180038095235</v>
+        <v>273.9836666666666</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>672.3460799999999</v>
+        <v>577.1456799999994</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>155.8739853333333</v>
+        <v>166.35732</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>492.5720683333332</v>
+        <v>504.0548033333332</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1048.5929</v>
+        <v>1021.63198</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>394.9055366666667</v>
+        <v>405.9357666666669</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>260.028</v>
+        <v>260.5381285714286</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>563.8476599999998</v>
+        <v>583.7638600000004</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>617.9677600000001</v>
+        <v>544.8528633333333</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>328.0147933333331</v>
+        <v>314.41496</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>951.81844</v>
+        <v>938.1058800000001</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>768.5286000000001</v>
+        <v>701.4964799999999</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>655.1567799999999</v>
+        <v>692.0707600000001</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>337.4132093333333</v>
+        <v>394.1538053333334</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>500.8579883333333</v>
+        <v>382.4925400000002</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>480.0416949999998</v>
+        <v>406.5953733333334</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>314.2325506666664</v>
+        <v>323.4433199999999</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>295.0305466666666</v>
+        <v>314.9648909523809</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>525.5867600000003</v>
+        <v>573.1959400000001</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>508.8864800000003</v>
+        <v>626.2876000000003</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>290.6321166666668</v>
+        <v>283.8730590476191</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>531.9799400000006</v>
+        <v>579.8277200000003</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>833.7944866666662</v>
+        <v>805.3748000000001</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>764.87352</v>
+        <v>727.7129799999998</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>396.6625800000007</v>
+        <v>414.1163100000001</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1150.72524</v>
+        <v>1018.4143</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>236.51118</v>
+        <v>243.7137133333333</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1374.91128</v>
+        <v>1211.300910666667</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>172.4217733333333</v>
+        <v>220.5203733333333</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>268.9949866666667</v>
+        <v>275.9769533333333</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>294.06922</v>
+        <v>277.4554103333332</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>308.6786866666667</v>
+        <v>326.3749933333334</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>473.8657000000001</v>
+        <v>411.956478666667</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>491.4223333333334</v>
+        <v>406.1592499999999</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>927.9222000000002</v>
+        <v>1094.856657333333</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>548.4255200000005</v>
+        <v>547.3783200000001</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>294.86108</v>
+        <v>320.067639047619</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>516.5828199999999</v>
+        <v>546.8493600000004</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>486.7782600000001</v>
+        <v>530.1066066666666</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>163.8882333333333</v>
+        <v>195.8289866666667</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>563.6311600000001</v>
+        <v>529.9994000000003</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>660.3434199999999</v>
+        <v>624.4628600000002</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>370.428636</v>
+        <v>372.0113933333334</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>336.5040333333334</v>
+        <v>374.5906333333333</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>588.9911200000001</v>
+        <v>561.0112800000003</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>348.7132399999999</v>
+        <v>379.8852066666668</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>443.4590433333332</v>
+        <v>467.3235400000002</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>228.65502</v>
+        <v>236.7756333333333</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>849.7471</v>
+        <v>859.3202799999999</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>191.28388</v>
+        <v>204.0703266666664</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>400.3375733333335</v>
+        <v>423.2734373333332</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>359.6648</v>
+        <v>363.5038733333333</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1372.80272</v>
+        <v>1428.804553333334</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>232.06084</v>
+        <v>249.4162133333334</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>467.105185</v>
+        <v>464.8975</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>591.7628400000002</v>
+        <v>563.7089800000001</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>458.7991376190471</v>
+        <v>390.9843833333337</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>353.89523</v>
+        <v>320.2404393333331</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>557.0784399999997</v>
+        <v>549.9649800000002</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>331.9569066666667</v>
+        <v>333.5564266666667</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>546.6124400000003</v>
+        <v>506.3510399999999</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>181.7421199999999</v>
+        <v>174.4789599999999</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>290.0754466666667</v>
+        <v>235.72418</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>766.7320799999997</v>
+        <v>776.1262199999998</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>547.9625600000007</v>
+        <v>407.69418</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>401.0972600000001</v>
+        <v>419.82621</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>700.5022</v>
+        <v>694.9733</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>478.7781866666667</v>
+        <v>407.2020200000001</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1403.057893333334</v>
+        <v>1387.86294</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>283.64716</v>
+        <v>290.6693999999999</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>439.1224066666661</v>
+        <v>479.9411213333336</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>451.6344200000001</v>
+        <v>544.4482599999999</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>348.5080400000001</v>
+        <v>335.38732</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>115.082</v>
+        <v>112.542</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>612.1146000000001</v>
+        <v>572.9385599999998</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1037.85992</v>
+        <v>1090.72908</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>565.9843200000001</v>
+        <v>644.9113199999998</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>223.37008</v>
+        <v>226.54194</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>314.5490304761903</v>
+        <v>314.52354</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>254.7917799999999</v>
+        <v>311.3602266666666</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>914.9056066666666</v>
+        <v>921.2499200000002</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>406.6327600000004</v>
+        <v>369.0393400000001</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>316.94684</v>
+        <v>317.34452</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>460.4233800000005</v>
+        <v>497.1112266666665</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>350.3218866666669</v>
+        <v>340.4180733333332</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>549.56056</v>
+        <v>541.4467800000001</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>415.0217933333334</v>
+        <v>396.3368966666669</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>377.8529799999999</v>
+        <v>403.7167666666677</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>512.51558</v>
+        <v>506.9309399999999</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>688.6216999999998</v>
+        <v>703.6912600000001</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>436.8923733333331</v>
+        <v>371.46996</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>312.8680033333334</v>
+        <v>302.6908760000001</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>965.1756999999997</v>
+        <v>1090.703699999999</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1556.905799999999</v>
+        <v>1187.26972</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>260.85236</v>
+        <v>259.23196</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>273.6936666666667</v>
+        <v>257.3203600000001</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>243.58454</v>
+        <v>265.1716085714286</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>184.7700466666666</v>
+        <v>202.9084799999999</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>322.2825884761902</v>
+        <v>287.2486066666667</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>510.5515600000007</v>
+        <v>471.6510800000003</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>976.2093999999998</v>
+        <v>847.6046266666666</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>269.3559600000001</v>
+        <v>296.3107017142856</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>247.11314</v>
+        <v>256.2477066666667</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>524.1757399999999</v>
+        <v>486.9595400000002</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>217.3984199999999</v>
+        <v>207.41258</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>281.0632199999999</v>
+        <v>287.9872000000001</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>625.0446400000003</v>
+        <v>514.72426</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1081.02506</v>
+        <v>829.10064</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>373.5506600000001</v>
+        <v>373.6860999999999</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>226.83604</v>
+        <v>226.71874</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>307.58622</v>
+        <v>340.0303000000001</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>889.4846019047615</v>
+        <v>871.0875428571428</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>369.0579400000001</v>
+        <v>328.7542799999999</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>270.16832</v>
+        <v>270.27308</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>303.648115</v>
+        <v>307.96558</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1342.59404</v>
+        <v>1454.59286</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>406.4071433333336</v>
+        <v>409.5064233333333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>348.1463971428571</v>
+        <v>316.8025990476188</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>444.3262466666667</v>
+        <v>456.6782800000003</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>405.1468100000001</v>
+        <v>406.8248400000001</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>351.4295828571428</v>
+        <v>265.6650666666666</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>153.99741</v>
+        <v>159.52801</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>243.3177866666666</v>
+        <v>254.2285057142857</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>352.1921799999983</v>
+        <v>352.0127799999978</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>963.67224</v>
+        <v>776.0154799999998</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>408.028636809524</v>
+        <v>413.9841133333334</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>439.0366599999999</v>
+        <v>387.955282</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>328.2189266666664</v>
+        <v>305.0662983333332</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>275.212</v>
+        <v>275.7686266666666</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>292.5350666666668</v>
+        <v>248.8275599999999</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>226.8892133333333</v>
+        <v>236.5777866666666</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>317.6960118095238</v>
+        <v>338.69958</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>303.2255466666667</v>
+        <v>314.7793733333332</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1026.23922</v>
+        <v>857.3765999999999</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>278.0422799999999</v>
+        <v>361.3854800000001</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>257.728018095238</v>
+        <v>275.466899047619</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>425.9796953333329</v>
+        <v>427.279441666667</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>503.8431599999999</v>
+        <v>477.9945933333337</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>100.896</v>
+        <v>100.2213333333333</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>603.5495000000001</v>
+        <v>676.0950999999998</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>336.94222</v>
+        <v>339.9733173333333</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>389.1220483333337</v>
+        <v>392.4694636190478</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>708.7432999999996</v>
+        <v>694.5398199999997</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>298.3351099999999</v>
+        <v>342.4079093333333</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>284.5793600000001</v>
+        <v>266.8219666666666</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>939.1605599999998</v>
+        <v>949.49706</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>401.6822600000003</v>
+        <v>411.836852142857</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>156.61574</v>
+        <v>146.2382733333334</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>194.458</v>
+        <v>193.094</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>522.0361800000005</v>
+        <v>598.6625799999998</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>618.3370399999999</v>
+        <v>486.1983000000001</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>563.7568799999998</v>
+        <v>534.32856</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>360.1075666666667</v>
+        <v>403.2890533333334</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>247.9139533333333</v>
+        <v>249.6531</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>426.6101866666667</v>
+        <v>424.7913333333333</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1378.838</v>
+        <v>1334.56</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>635.36472</v>
+        <v>670.3606600000001</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>775.3017</v>
+        <v>883.853560000001</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>356.38362</v>
+        <v>398.6215966666669</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>247.9301</v>
+        <v>235.696</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>541.5572400000002</v>
+        <v>539.97356</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>358.3194533333336</v>
+        <v>376.7666733333334</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>231.9094466666667</v>
+        <v>203.7495066666667</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>495.2114399999999</v>
+        <v>483.6853400000001</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>676.93244</v>
+        <v>738.84854</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>327.8170479999997</v>
+        <v>332.364164</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>279.4185816666664</v>
+        <v>356.0436199999999</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>315.8318239999999</v>
+        <v>328.2332573333334</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>405.0895</v>
+        <v>407.2055733333335</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>422.6968999999998</v>
+        <v>468.8702716666667</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>784.3150266666669</v>
+        <v>807.9631200000001</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>344.2247666666667</v>
+        <v>317.1187746666667</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>311.3126133333334</v>
+        <v>292.8915961904763</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>549.0072800000002</v>
+        <v>529.32254</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>395.2575166666667</v>
+        <v>339.5515466666667</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>580.9993400000002</v>
+        <v>507.8586733333337</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1416.23696</v>
+        <v>1544.713373333334</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>199.6476599999998</v>
+        <v>199.9659199999999</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>303.98538</v>
+        <v>347.5792666666666</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>289.38182</v>
+        <v>291.72489</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>227.3037</v>
+        <v>248.5603066666666</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1592.41</v>
+        <v>1497.90614</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>1022.6972</v>
+        <v>1054.60928</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>249.71</v>
+        <v>234.0577133333333</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>511.0094626666665</v>
+        <v>526.7803933333333</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>333.6937666666667</v>
+        <v>310.4221533333333</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>354.2531799999999</v>
+        <v>351.8220199999996</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>177.75586</v>
+        <v>204.5256866666665</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>392.6385200000003</v>
+        <v>371.65088</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>258.8262</v>
+        <v>258.581</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>338.2842199999999</v>
+        <v>331.0892333333334</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>919.9865400000001</v>
+        <v>1087.91452</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>338.1768133333333</v>
+        <v>343.3006799999999</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>344.2260293333331</v>
+        <v>343.5560199999999</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>298.39806</v>
+        <v>296.0044628571429</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>372.7577733333334</v>
+        <v>286.7703533333333</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>815.07678</v>
+        <v>965.2566999999999</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>223.18538</v>
+        <v>246.2929057142857</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>361.75152</v>
+        <v>352.1833426666665</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>347.2931066666667</v>
+        <v>338.2936933333332</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>218.6071533333333</v>
+        <v>232.4464666666666</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>228.9003533333334</v>
+        <v>222.42962</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>253.5929200000006</v>
+        <v>253.625173333334</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>210.248</v>
+        <v>209.016</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>391.9555346666668</v>
+        <v>350.5695266666665</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>331.9358066666667</v>
+        <v>373.9748866666667</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>352.5819599999976</v>
+        <v>352.5709999999976</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>845.0234800000001</v>
+        <v>1063.4752</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>425.2290000000003</v>
+        <v>438.7877933333334</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>395.1000899999999</v>
+        <v>370.1461626666668</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>388.5965266666665</v>
+        <v>387.4709834761906</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1297.152080000001</v>
+        <v>1289.68222</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>352.6091628571427</v>
+        <v>279.1394</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>246.0821342857143</v>
+        <v>302.66</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>676.8890999999996</v>
+        <v>659.21206</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>619.1068800000003</v>
+        <v>633.2993399999997</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>523.8560266666667</v>
+        <v>494.2503600000003</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>501.1936850000002</v>
+        <v>448.1691633333332</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>579.7833000000007</v>
+        <v>598.3071200000002</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>625.5922999999999</v>
+        <v>574.8434599999996</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>748.3080200000003</v>
+        <v>831.8913799999997</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>358.9636066666666</v>
+        <v>293.9926073333335</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>436.3598066666665</v>
+        <v>435.5400549999997</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>296.0151399999998</v>
+        <v>290.12288</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>642.50102</v>
+        <v>781.9916999999999</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>378.3100566666668</v>
+        <v>314.5773166666667</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>554.22876</v>
+        <v>610.90738</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>289.5396399999999</v>
+        <v>296.8797</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>242.1676199999994</v>
+        <v>243.777053333333</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>356.69018</v>
+        <v>356.3492800000001</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>261.5217999999999</v>
+        <v>239.3439933333333</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>694.6460999999999</v>
+        <v>652.3231999999999</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>338.8418000000001</v>
+        <v>359.1922199999999</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>729.3052999999999</v>
+        <v>861.6393399999999</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>177.6169514285714</v>
+        <v>217.6621333333333</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>640.2759400000001</v>
+        <v>680.5602999999999</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>946.5494085714286</v>
+        <v>881.0609266666663</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>296.6843200000001</v>
+        <v>302.6794</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>1031.49182</v>
+        <v>1060.51866</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>493.3542599999999</v>
+        <v>475.8885399999994</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>972.64018</v>
+        <v>976.2352999999999</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>472.3852000000001</v>
+        <v>530.88072</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>775.8966599999999</v>
+        <v>657.9098799999999</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>590.2727799999997</v>
+        <v>709.0519399999997</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>367.8238599999999</v>
+        <v>346.7829466666668</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>993.1183933333326</v>
+        <v>1083.212629333333</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>314.052049142857</v>
+        <v>327.0448066666664</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>267.22216</v>
+        <v>300.4915466666666</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>378.8496000000001</v>
+        <v>415.9035373333334</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>766.00612</v>
+        <v>801.8414666666665</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>295.68632</v>
+        <v>269.5006066666667</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>356.3382199999999</v>
+        <v>349.9710146666667</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>915.0691466666667</v>
+        <v>984.682</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>306.9313513333332</v>
+        <v>335.4493399999999</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>368.2766399999999</v>
+        <v>369.18452</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>371.4938033333339</v>
+        <v>317.6192707142858</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>464.0813599999998</v>
+        <v>432.4717</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>559.8186800000002</v>
+        <v>537.8534466666667</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>344.1797066666667</v>
+        <v>334.2868127619047</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>709.4305199999998</v>
+        <v>660.8745999999999</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>457.1132841666669</v>
+        <v>473.6313599999997</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>311.1438866666666</v>
+        <v>312.5126399999999</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>986.6559199999998</v>
+        <v>1007.1389</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>349.41012</v>
+        <v>312.90242</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>236.0896733333333</v>
+        <v>206.08678</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>107.1982</v>
+        <v>108.7514</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>473.0780466666671</v>
+        <v>419.9216246666668</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>370.52538</v>
+        <v>364.5259800000001</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>327.583028</v>
+        <v>341.9027599999999</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>781.4728800000001</v>
+        <v>787.8648800000002</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>253.9901333333332</v>
+        <v>246.4041333333333</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>355.0623266666669</v>
+        <v>356.4152800000001</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>393.5628933333333</v>
+        <v>304.0096666666668</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>424.7958599999999</v>
+        <v>383.0543026666666</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>798.3738600000003</v>
+        <v>859.1616361904756</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>398.9492266666675</v>
+        <v>385.5338800000001</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>396.5815999999999</v>
+        <v>378.1004400000002</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>330.4944385714285</v>
+        <v>359.8244999999999</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>395.8711733333345</v>
+        <v>444.8403733333336</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>174.95758</v>
+        <v>162.02398</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>280.8116933333333</v>
+        <v>294.8312533333333</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>628.95776</v>
+        <v>633.9798199999998</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>748.2549</v>
+        <v>568.8877199999999</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>312.0414137142856</v>
+        <v>321.4103333333333</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>318.2828266666666</v>
+        <v>321.8345299047618</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>183.1498533333333</v>
+        <v>181.9061599999999</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>265.47124</v>
+        <v>262.07232</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>1194.44466</v>
+        <v>1336.191033333334</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>222.2715266666667</v>
+        <v>240.7577799999999</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>479.8474200000001</v>
+        <v>622.8484999999996</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>361.17248</v>
+        <v>392.7299103333333</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>799.3214999999999</v>
+        <v>630.5883399999998</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>238.8384799999999</v>
+        <v>319.4551733333334</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>475.2567999999998</v>
+        <v>458.889563333333</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>217.507</v>
+        <v>209.9768333333332</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>242.84906</v>
+        <v>260.2037533333333</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>308.1347266666667</v>
+        <v>307.7084333333332</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>429.4884466666667</v>
+        <v>434.44648</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>369.2616213333333</v>
+        <v>374.0678428571429</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>988.0562199999997</v>
+        <v>978.4383400000002</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>301.25728</v>
+        <v>300.5300028571429</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>210.8255733333333</v>
+        <v>214.8481399999999</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>397.4846933333336</v>
+        <v>414.1496316666666</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>406.6495306666667</v>
+        <v>402.5200733333334</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>466.3311399999993</v>
+        <v>538.9463383333335</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>690.7211799999995</v>
+        <v>562.26454</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>109.99</v>
+        <v>102.80136</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>528.8119799999998</v>
+        <v>525.25458</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>653.3075600000001</v>
+        <v>630.7246599999996</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>456.4543033333335</v>
+        <v>424.1030650000001</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>533.5285399999997</v>
+        <v>449.4044199999999</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>118.05832</v>
+        <v>115.058</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>463.5415733333331</v>
+        <v>458.9567266666663</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>351.4997137142855</v>
+        <v>361.6933399999999</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>394.045386666667</v>
+        <v>431.9765170000001</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>799.39484</v>
+        <v>817.61902</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>629.12744</v>
+        <v>667.5244599999993</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>288.29192</v>
+        <v>248.7471</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>873.26216</v>
+        <v>904.0591800000001</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>535.3438800000004</v>
+        <v>450.02784</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>396.6214000000002</v>
+        <v>394.9326150000001</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>175.9975</v>
+        <v>177.261592</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>768.4544200000001</v>
+        <v>974.956173333333</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>561.4173200000001</v>
+        <v>552.8233399999999</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>684.3200199999999</v>
+        <v>677.6785199999999</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>433.5248599999998</v>
+        <v>384.9173833333334</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>555.1683066666667</v>
+        <v>507.3459480000002</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>399.6094980000002</v>
+        <v>409.7196466666667</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>284.27518</v>
+        <v>279.1211266666667</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>266.723678095238</v>
+        <v>261.2291366666666</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>407.1599361904763</v>
+        <v>395.4328200000008</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>170.7115146666666</v>
+        <v>147.7234199999999</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>291.27728</v>
+        <v>265.5115933333333</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>353.683633333333</v>
+        <v>320.8511013333333</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>731.1771200000004</v>
+        <v>812.7368200000001</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>119.05806</v>
+        <v>131.8705200000001</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>363.0153433333335</v>
+        <v>338.5700080000002</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>303.0742600000003</v>
+        <v>402.0377480000002</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>252.8085066666666</v>
+        <v>205.6442733333334</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>972.0491199999999</v>
+        <v>1147.966164</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>340.2879383333334</v>
+        <v>400.0146066666666</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>461.9679133333331</v>
+        <v>544.3829733333338</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>278.77214</v>
+        <v>313.8676266666666</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>276.6364466666668</v>
+        <v>278.8015866666665</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>279.9297933333334</v>
+        <v>319.3231866666665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>581.7605600000003</v>
+        <v>550.5870400000003</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>388.2761767619047</v>
+        <v>397.1407200000003</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>381.08012</v>
+        <v>374.82192</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>360.2427866666667</v>
+        <v>321.8409470476188</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>496.0993939999998</v>
+        <v>445.4068599999999</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>343.2859213333332</v>
+        <v>342.7540133333333</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>379.0883604761905</v>
+        <v>380.2072680000001</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>141.5191666666666</v>
+        <v>137.9015</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>831.2384400000002</v>
+        <v>787.4842799999998</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>310.4288766666668</v>
+        <v>307.9461666666666</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>248.69486</v>
+        <v>222.3105599999999</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>406.405026666667</v>
+        <v>423.9516600000001</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>716.9489800000002</v>
+        <v>608.32168</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>281.2947733333333</v>
+        <v>265.7166066666665</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>334.3574013333333</v>
+        <v>286.4317657142859</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>380.5609026666666</v>
+        <v>376.4355066666666</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>527.3379306666667</v>
+        <v>586.7604600000001</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>343.9796346666664</v>
+        <v>327.9995166666666</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>258.20652</v>
+        <v>272.0135866666665</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>1072.218813333333</v>
+        <v>1049.625899999999</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>473.8522799999998</v>
+        <v>450.2085000000001</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>916.5023333333332</v>
+        <v>1236.80714</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>404.9017266666671</v>
+        <v>384.8012479999999</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>397.2100699999999</v>
+        <v>416.7218773333331</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>333.2832</v>
+        <v>341.6424066666668</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>453.6387866666666</v>
+        <v>406.1291399999999</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>199.616</v>
+        <v>199.72986</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>476.9345400000001</v>
+        <v>505.12978</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>392.4232234285714</v>
+        <v>362.1141826666667</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>238.4803466666667</v>
+        <v>249.5210885714286</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>276.7683200000001</v>
+        <v>287.1476438095238</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>313.6968600000001</v>
+        <v>336.8533373333333</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>530.89477</v>
+        <v>592.1783799999998</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1030.9333</v>
+        <v>1032.82548</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>246.8768666666666</v>
+        <v>271.0129866666667</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>227.0494666666667</v>
+        <v>230.85612</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1270.334799999999</v>
+        <v>1306.61336</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>287.38662</v>
+        <v>299.8484799999999</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>177.62076</v>
+        <v>138.7559971428572</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>504.6165800000007</v>
+        <v>517.4495266666669</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>443.9085106666656</v>
+        <v>449.2801103333332</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1150.56696</v>
+        <v>1026.94384</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>646.0183399999999</v>
+        <v>614.77626</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>726.6369000000002</v>
+        <v>713.9902999999999</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>202.18622</v>
+        <v>209.2469133333333</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>293.65451</v>
+        <v>247.2309</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>317.9309866666667</v>
+        <v>307.1017046666664</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1458.321053333334</v>
+        <v>1659.754306666667</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>719.59196</v>
+        <v>667.5599399999998</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>1042.68736</v>
+        <v>1042.593879999999</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>188.3149733333333</v>
+        <v>186.128</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>479.2530733333332</v>
+        <v>459.8111833333332</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>229.3248333333333</v>
+        <v>250.2512876190474</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>453.1607399999999</v>
+        <v>441.5411000000001</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>308.5363238571431</v>
+        <v>308.0072613333334</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>261.6630933333333</v>
+        <v>236.07284</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>279.7605333333333</v>
+        <v>273.2232904761905</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>156.7714</v>
+        <v>155.801492</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1417.13948</v>
+        <v>1384.203</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>373.4096979047615</v>
+        <v>372.0433826666666</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>362.8717466666667</v>
+        <v>458.8400933333333</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>326.3926314285716</v>
+        <v>321.6888799999999</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>482.5700506666666</v>
+        <v>511.8185200000003</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>187.5601666666666</v>
+        <v>183.9485733333333</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>269.4970469999999</v>
+        <v>262.3582133333333</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>449.2410199999999</v>
+        <v>418.4880866666666</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>744.3264000000004</v>
+        <v>855.3108133333334</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>361.1826399999999</v>
+        <v>337.1109133333334</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>307.494545</v>
+        <v>306.9405266666666</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>272.1273733333334</v>
+        <v>316.1208853333333</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>281.4045799999999</v>
+        <v>276.4273733333333</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>270.12396</v>
+        <v>309.1315999999999</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>404.3080476666664</v>
+        <v>319.2423666666666</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>548.4438999999999</v>
+        <v>527.8132533333334</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>691.9205399999998</v>
+        <v>617.97804</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>409.2738400000001</v>
+        <v>414.1750200000003</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>510.3189300000002</v>
+        <v>540.5952333333336</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>233.7817866666667</v>
+        <v>259.7946942857142</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>523.8651400000001</v>
+        <v>469.5136666666664</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>133.0185799999997</v>
+        <v>128.77916</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>487.5849666666669</v>
+        <v>428.4546066666673</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>513.3320600000008</v>
+        <v>488.4724399999999</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>824.6071800000003</v>
+        <v>765.23576</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>525.71066</v>
+        <v>523.144404</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>208.28</v>
+        <v>205.72136</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1201.25342</v>
+        <v>1149.93862</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>690.1914199999998</v>
+        <v>612.3033400000002</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>280.4351950000001</v>
+        <v>290.5148933333334</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>298.3573799999999</v>
+        <v>299.77208</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>273.93396</v>
+        <v>275.67608</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>238.1214666666666</v>
+        <v>273.0835466666666</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>219.7513599999996</v>
+        <v>200.5618266666666</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>402.1207000000007</v>
+        <v>372.83572</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>596.1677200000003</v>
+        <v>633.2411599999999</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>342.5184799999999</v>
+        <v>337.6597733333334</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>347.7948533333334</v>
+        <v>354.8118333333333</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>478.3296600000007</v>
+        <v>459.9855600000002</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>850.6745800000001</v>
+        <v>814.2932600000004</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>477.1025999999994</v>
+        <v>479.0616999999999</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>621.3917400000004</v>
+        <v>592.8638999999999</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>264.4156199999999</v>
+        <v>283.9098266666667</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>540.00524</v>
+        <v>485.1087250000001</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>267.62004</v>
+        <v>268.8219933333333</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>320.1607599999999</v>
+        <v>295.4561</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>383.66258</v>
+        <v>409.1684720000001</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>451.5064400000001</v>
+        <v>425.7585800000002</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>293.951286</v>
+        <v>301.54658</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>223.28872</v>
+        <v>194.25408</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>278.8264733333335</v>
+        <v>251.16634</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>618.57096</v>
+        <v>615.9267200000004</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>303.3918506666666</v>
+        <v>325.9310466666667</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>347.3255000000001</v>
+        <v>401.1484040000003</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>383.9061573333335</v>
+        <v>376.2955466666667</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>236.8783000000001</v>
+        <v>266.7515209523809</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>510.90444</v>
+        <v>613.13544</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>249.858</v>
+        <v>238.0026285714286</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2247.45252</v>
+        <v>2251.278</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>487.7773500000005</v>
+        <v>499.7859459999999</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>243.4989266666666</v>
+        <v>247.420420952381</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>309.4808165238098</v>
+        <v>334.4832333333331</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>278.0209599999999</v>
+        <v>268.8508009523809</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>518.5397800000004</v>
+        <v>423.3865266666666</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>651.46228</v>
+        <v>660.0003600000001</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>286.5050733333334</v>
+        <v>274.4677133333333</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>456.7130200000001</v>
+        <v>402.2961893333334</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>250.20784</v>
+        <v>227.2895066666667</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>91.68978666666635</v>
+        <v>73.27799999999999</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>273.7266266666667</v>
+        <v>289.40329</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>305.2442599999999</v>
+        <v>292.7677999999997</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>315.61602</v>
+        <v>303.1459159999999</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>443.7415933333333</v>
+        <v>411.8781906666668</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>725.30114</v>
+        <v>774.5658800000002</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>394.2571800000002</v>
+        <v>361.163058</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>383.3648200000001</v>
+        <v>328.15336</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>259.9806066666666</v>
+        <v>250.98534</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>587.39674</v>
+        <v>609.9579999999996</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>396.331071333333</v>
+        <v>418.8665866666668</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>499.0047000000008</v>
+        <v>507.5112000000016</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>341.64368</v>
+        <v>266.5339333333333</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>132.57724</v>
+        <v>142.9334854761905</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>258.7085276190477</v>
+        <v>250.0728</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>721.7531199999996</v>
+        <v>766.03092</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>226.4443</v>
+        <v>243.8508399999999</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>305.0530783333333</v>
+        <v>290.9943466666667</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>294.14844</v>
+        <v>283.95114</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>400.8950393333332</v>
+        <v>428.5931933333334</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>271.24212</v>
+        <v>272.686</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>249.67866</v>
+        <v>245.64314</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>303.3127</v>
+        <v>372.7687133333334</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>321.3261626666667</v>
+        <v>353.2770870476191</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>313.7699599999999</v>
+        <v>340.0447866666665</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>744.2885999999999</v>
+        <v>650.7730599999999</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>710.2700000000001</v>
+        <v>673.40446</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>263.7298000000001</v>
+        <v>263.9448433333334</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>438.8071666666668</v>
+        <v>388.6211300000003</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>283.42808</v>
+        <v>283.6905933333333</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>253.9766723809521</v>
+        <v>267.2129133333333</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>837.1483133333332</v>
+        <v>687.3867999999997</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>272.86536</v>
+        <v>259.6065599999997</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1284.513226666666</v>
+        <v>1324.00118</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>357.3556066666666</v>
+        <v>356.5495999999999</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>186.6268</v>
+        <v>193.0082466666666</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>279.12562</v>
+        <v>273.80116</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>483.0071545238096</v>
+        <v>571.4386999999999</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>921.03472</v>
+        <v>786.41128</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>395.1131466666669</v>
+        <v>410.8663900000001</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>341.56592</v>
+        <v>331.4601613333332</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>225.6997333333333</v>
+        <v>234.5691333333333</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>283.7934</v>
+        <v>278.92168</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>564.3607199999999</v>
+        <v>669.10336</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>387.8298286666667</v>
+        <v>421.7128800000001</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>445.2382866666666</v>
+        <v>466.6033833333332</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>314.4120333333333</v>
+        <v>344.9611213333332</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>122.302</v>
+        <v>132.2750671428572</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>241.24776</v>
+        <v>242.73246</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>527.9190600000006</v>
+        <v>570.8786400000004</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>431.2936399999998</v>
+        <v>417.0188566666667</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>333.9011733333334</v>
+        <v>346.2959933333334</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>638.5167599999996</v>
+        <v>540.2935533333333</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>538.69046</v>
+        <v>676.1390199999998</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>359.4513400000001</v>
+        <v>410.7177173333332</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>251.32084</v>
+        <v>250.0096923809523</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>393.815523333334</v>
+        <v>424.5531533333337</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>240.3629857142857</v>
+        <v>248.4002523809523</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>450.3728266666668</v>
+        <v>489.6621999999999</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>435.2549999999993</v>
+        <v>462.2299133333333</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1524.889080000001</v>
+        <v>1356.66144</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>223.3879571428571</v>
+        <v>233.4353066666666</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>484.1932533333332</v>
+        <v>472.6803466666663</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>315.1936566666667</v>
+        <v>317.7389323809523</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>415.2485360000001</v>
+        <v>392.408094666667</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>468.2068599999999</v>
+        <v>440.4252133333334</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>721.3496600000001</v>
+        <v>778.64604</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>318.7936666666666</v>
+        <v>330.7742266666666</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>286.7097466666667</v>
+        <v>308.84892</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>573.2766400000002</v>
+        <v>574.15768</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>558.3325000000001</v>
+        <v>501.10656</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>452.5580177777779</v>
+        <v>446.7004337142856</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>350.2000500000002</v>
+        <v>366.7305933333334</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1213.26512</v>
+        <v>921.8219199999991</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>504.6140800000008</v>
+        <v>442.96358</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>376.1936666666667</v>
+        <v>370.1850600000001</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>801.5063200000001</v>
+        <v>635.9577399999999</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>448.457079999999</v>
+        <v>513.60016</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1357.2434</v>
+        <v>1220.310068</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>563.40418</v>
+        <v>597.6555400000002</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>504.1273800000004</v>
+        <v>547.5112733333336</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>667.0549</v>
+        <v>633.3662000000002</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>404.8559646666666</v>
+        <v>404.1545541428574</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1080.10762</v>
+        <v>1090.486979999999</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>437.7851399999998</v>
+        <v>474.4469618571432</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>402.5668093333331</v>
+        <v>340.2245066666666</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>355.3574800000002</v>
+        <v>354.7163999999998</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>416.8960699999999</v>
+        <v>414.8804430000001</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>242.0926733333333</v>
+        <v>244.61286</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>599.84528</v>
+        <v>614.2647999999999</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>336.8069400000001</v>
+        <v>418.7260880000001</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>851.4528</v>
+        <v>932.5122200000001</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>347.8424133333329</v>
+        <v>348.5706999999995</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>934.2999599999999</v>
+        <v>943.88</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>593.4202200000001</v>
+        <v>577.1441400000001</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>168.03416</v>
+        <v>163.6455799999999</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>357.7029466666667</v>
+        <v>350.2867826666669</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>318.6216200000005</v>
+        <v>292.4370533333334</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>242.87264</v>
+        <v>236.7102733333333</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>398.0498790000001</v>
+        <v>421.5213093333336</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>205.2774599999999</v>
+        <v>199.70942</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>272.1611933333334</v>
+        <v>263.4907999999999</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>308.190165</v>
+        <v>372.1606666666669</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>380.25727</v>
+        <v>456.8008833333329</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>240.5488542857143</v>
+        <v>238.7045666666667</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>308.4908966666667</v>
+        <v>326.5450866666667</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>415.5444406666667</v>
+        <v>449.3894783333331</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>580.5161599999999</v>
+        <v>586.0094</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>558.4603400000001</v>
+        <v>556.7193300000001</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>431.3152933333334</v>
+        <v>392.0359050000004</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>335.6256</v>
+        <v>339.2868666666666</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>557.7519600000001</v>
+        <v>555.4949799999999</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1209.9576</v>
+        <v>1385.1103</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>891.6589866666666</v>
+        <v>934.0575600000001</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3377.140293333333</v>
+        <v>3175.194993333334</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>214.96462</v>
+        <v>210.0346</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>354.4624999999999</v>
+        <v>408.7330240000002</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>438.3728026666658</v>
+        <v>442.1990599999997</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>404.2885340000002</v>
+        <v>422.3565066666669</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>341.2473600000001</v>
+        <v>381.4581646666667</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>1099.22068</v>
+        <v>1112.20612</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>814.2180800000002</v>
+        <v>868.9625999999996</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>160.2968866666667</v>
+        <v>176.18045</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>266.5842</v>
+        <v>247.3171933333333</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>965.8167799999998</v>
+        <v>841.1343666666669</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>697.13584</v>
+        <v>831.0998199999998</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>217.8694666666667</v>
+        <v>217.1148133333333</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>659.321139999999</v>
+        <v>578.8877966666664</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>640.8767399999999</v>
+        <v>651.5585600000001</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>315.3380600000003</v>
+        <v>313.05704</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>468.6925500000008</v>
+        <v>454.5242000000004</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>394.0810733333335</v>
+        <v>514.0567000000002</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>784.7666400000002</v>
+        <v>786.39804</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>216.4202266666666</v>
+        <v>236.8822666666667</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>400.5910285714285</v>
+        <v>369.0467400000001</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>357.7749133333333</v>
+        <v>363.3970599999999</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>431.1933333333329</v>
+        <v>415.4850200000001</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>395.33808</v>
+        <v>370.9638738095239</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>688.9505199999996</v>
+        <v>700.8075999999999</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>662.9149000000002</v>
+        <v>580.0848766666664</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>287.6965466666667</v>
+        <v>281.7685999999999</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>781.4775</v>
+        <v>703.0916599999998</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>324.09596</v>
+        <v>294.8973433333333</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>345.77248</v>
+        <v>344.5475666666666</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>861.6598</v>
+        <v>794.2031999999999</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>262.36283</v>
+        <v>283.3937366666666</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>699.7000599999999</v>
+        <v>853.1030399999997</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>141.75104</v>
+        <v>157.365070952381</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>808.4958733333333</v>
+        <v>735.4666599999999</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>169.72746</v>
+        <v>160.3966833333333</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>314.6271099999999</v>
+        <v>234.4554866666667</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>156.4522666666667</v>
+        <v>146.111236</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>257.25522</v>
+        <v>290.48914</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>765.03568</v>
+        <v>730.4355800000001</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>257.0278719999998</v>
+        <v>277.7715</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>567.1318399999996</v>
+        <v>550.5076999999993</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>393.0176420000003</v>
+        <v>397.3446438095239</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>314.9608933333332</v>
+        <v>252.9277799999999</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>213.7242</v>
+        <v>201.8634142857143</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>404.9961386666668</v>
+        <v>348.786252</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>370.5406</v>
+        <v>413.3621571428572</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>177.6358666666666</v>
+        <v>154.6938833333333</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>357.9803800000001</v>
+        <v>345.27276</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>693.2650199999998</v>
+        <v>745.96476</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>155.1157966666667</v>
+        <v>155.771818</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>296.94086</v>
+        <v>321.8678754285713</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>261.18588</v>
+        <v>310.985</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>364.4246895238095</v>
+        <v>339.5449399999999</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>335.5756999999998</v>
+        <v>381.24186</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>149.89504</v>
+        <v>149.6126</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>702.7808000000001</v>
+        <v>662.8164199999999</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>614.1052199999999</v>
+        <v>618.54454</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>554.87846</v>
+        <v>561.5358400000001</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>408.7521199999999</v>
+        <v>448.9933000000002</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>326.6225000000003</v>
+        <v>339.7925685714286</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>547.1338000000007</v>
+        <v>702.4709199999999</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>226.67846</v>
+        <v>221.4171866666667</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>468.1787569999995</v>
+        <v>451.1940849999999</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>480.20558</v>
+        <v>448.0286266666667</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>529.0622666666666</v>
+        <v>423.3001433333335</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>262.8341733333333</v>
+        <v>285.5656533333334</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>412.3040466666675</v>
+        <v>406.7047350000001</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>880.4410933333327</v>
+        <v>1004.03684</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>329.0088599999998</v>
+        <v>358.1977399999998</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>224.9313333333334</v>
+        <v>225.5657666666667</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>254.6511266666667</v>
+        <v>268.8276539999999</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>425.7457796666661</v>
+        <v>388.3321566666667</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>685.1854199999997</v>
+        <v>694.5574200000001</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>227.8724666666666</v>
+        <v>269.30996</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>343.5030799999999</v>
+        <v>329.8014039999999</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>380.9584199999999</v>
+        <v>371.3083693333332</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>68.148</v>
+        <v>73.4684</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>319.5185133333333</v>
+        <v>259.34134</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>299.5866399999999</v>
+        <v>317.0125666666665</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>377.1969066666669</v>
+        <v>370.0695000000001</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>937.0188733333334</v>
+        <v>874.9052866666667</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>317.8783817142857</v>
+        <v>295.9161066666666</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>529.1131800000003</v>
+        <v>586.2756800000002</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1407.51224</v>
+        <v>1378.650253333333</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>244.4190133333333</v>
+        <v>253.3088933333333</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>509.6096</v>
+        <v>449.7527000000001</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>738.56826</v>
+        <v>531.0299999999999</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>404.9117200000003</v>
+        <v>399.70098</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>470.3684000000005</v>
+        <v>431.6872600000004</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>598.8097600000001</v>
+        <v>581.11914</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>322.0537653333333</v>
+        <v>364.1711466666667</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>478.6865533333331</v>
+        <v>453.4172666666664</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>580.6152999999999</v>
+        <v>525.4959333333334</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>600.9699199999999</v>
+        <v>532.6228066666667</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>491.7693799999998</v>
+        <v>505.5404733333331</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>247.7226666666667</v>
+        <v>222.67114</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>407.3760676666671</v>
+        <v>482.1822041904762</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>339.9405333333334</v>
+        <v>322.2591149999999</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>196.2034</v>
+        <v>168.09744</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>239.8346</v>
+        <v>248.1703180952377</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>325.7668399999999</v>
+        <v>376.2974566666667</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>369.5342866666667</v>
+        <v>311.3369226666667</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>491.1223400000001</v>
+        <v>546.0564600000002</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>267.19844</v>
+        <v>300.0504746666665</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>368.4240800000001</v>
+        <v>372.481926</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>351.5290399999999</v>
+        <v>476.0924409999994</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>255.3616066666667</v>
+        <v>234.58768</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>529.8936040000003</v>
+        <v>524.1839866666668</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>277.2908666666667</v>
+        <v>259.0743866666666</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>532.66344</v>
+        <v>462.90076</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>426.204843</v>
+        <v>408.6047640000002</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>346.6030933333335</v>
+        <v>364.6607186666668</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>287.1857733333333</v>
+        <v>315.5461435238096</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>730.5214533333331</v>
+        <v>769.4276599999999</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>146.7259799999999</v>
+        <v>117.10208</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>609.5615200000002</v>
+        <v>653.8173200000001</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>729.543</v>
+        <v>834.4894399999999</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>254.6650133333333</v>
+        <v>254.47844</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>236.8210999999999</v>
+        <v>213.8660799999998</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>452.5783866666668</v>
+        <v>427.6196676666665</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>111.09606</v>
+        <v>116.9643666666666</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>550.2783000000002</v>
+        <v>575.8027800000003</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>412.3721000000001</v>
+        <v>389.5144333333335</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>285.0147809999999</v>
+        <v>296.3793696666666</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>433.9499069523806</v>
+        <v>396.0119366666667</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>414.2361199999999</v>
+        <v>402.9560800000002</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>308.7148333333333</v>
+        <v>336.5091066666666</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>636.3815599999997</v>
+        <v>654.0530600000002</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>312.3785933333329</v>
+        <v>355.05478</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>498.5435733333332</v>
+        <v>479.9118933333335</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>339.9686013333334</v>
+        <v>410.2027933333334</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>671.9668800000002</v>
+        <v>681.57512</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>662.5241</v>
+        <v>621.3353599999998</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>272.7175</v>
+        <v>236.84264</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>511.4752680000003</v>
+        <v>432.5432089999998</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>350.5226599999999</v>
+        <v>394.454635714286</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>779.9127799999995</v>
+        <v>665.4547999999993</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>575.2462300000002</v>
+        <v>572.533506666667</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>611.1817600000002</v>
+        <v>604.6667000000008</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>399.0988453333335</v>
+        <v>402.2866533333336</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1000.23662</v>
+        <v>934.1272200000001</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>244.2280866666666</v>
+        <v>244.9542333333333</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>233.6330266666667</v>
+        <v>244.8253266666666</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>320.8894199999999</v>
+        <v>337.6038933333334</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>300.47554</v>
+        <v>288.30424</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>204.2509133333334</v>
+        <v>210.4633066666666</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>480.7111266666665</v>
+        <v>479.0313533333334</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>637.3316400000002</v>
+        <v>665.6781799999999</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>498.2581999999998</v>
+        <v>463.4534533333332</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>248.8975866666669</v>
+        <v>248.01494</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>490.40802</v>
+        <v>532.7443599999999</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>247.8516466666667</v>
+        <v>285.1421266666666</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>277.88174</v>
+        <v>299.6986</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>577.1808000000003</v>
+        <v>532.71624</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>178.75886</v>
+        <v>212.6463533333332</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>670.6723200000001</v>
+        <v>762.7010799999998</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>691.6347599999999</v>
+        <v>700.4470199999994</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>686.6371000000001</v>
+        <v>660.2391399999998</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>624.0605200000001</v>
+        <v>596.5454600000002</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>250.87956</v>
+        <v>287.20882</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1400.93504</v>
+        <v>1600.90038</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>479.3737333333337</v>
+        <v>415.4279333333335</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>220.6251933333333</v>
+        <v>212.3175866666667</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>374.9617800000001</v>
+        <v>458.0312733333334</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>120.39684</v>
+        <v>122.63208</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>359.2723895238095</v>
+        <v>328.7857657142856</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>230.75994</v>
+        <v>229.1748199999999</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>742.1176999999998</v>
+        <v>699.15666</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>222.94388</v>
+        <v>225.23648</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>279.439161904762</v>
+        <v>295.4279073333333</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1023.306218666666</v>
+        <v>905.2565800000004</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>291.8702266666667</v>
+        <v>275.5595933333333</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>877.8922933333332</v>
+        <v>874.4793428571422</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>584.4029599999993</v>
+        <v>603.8184600000002</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>201.4448399999999</v>
+        <v>209.2263142857143</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>251.55506</v>
+        <v>257.8495733333333</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>153.1084733333333</v>
+        <v>153.79688</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>353.6945999999999</v>
+        <v>386.3065573333335</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>631.4946599999996</v>
+        <v>635.7995999999997</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>313.25812</v>
+        <v>300.9405333333333</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>350.47664</v>
+        <v>367.2062866666667</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>217.2146666666667</v>
+        <v>215.234</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1028.59854</v>
+        <v>1055.65282</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>198.4728999999999</v>
+        <v>205.8080733333333</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>334.0809333333333</v>
+        <v>323.6744000000001</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>522.6557440000003</v>
+        <v>463.11754</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>483.8233983333334</v>
+        <v>469.6784000000002</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>372.7670399999999</v>
+        <v>374.39562</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>467.7675799999999</v>
+        <v>506.5796800000002</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>365.04496</v>
+        <v>332.55592</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>356.4496199999999</v>
+        <v>351.4232076190477</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>225.9035714285714</v>
+        <v>244.6633799999998</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>283.6326</v>
+        <v>318.5398232380952</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>567.9212000000001</v>
+        <v>425.5300593333333</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>304.6977800000001</v>
+        <v>294.2791800000001</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>652.8382999999992</v>
+        <v>605.2476199999999</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>518.9842199999999</v>
+        <v>532.87146</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>268.7777466666666</v>
+        <v>263.55542</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>791.2308399999998</v>
+        <v>870.8259600000001</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>421.2091866666665</v>
+        <v>419.3611466666667</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>260.7738533333331</v>
+        <v>246.3906361904762</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>428.7318</v>
+        <v>416.8449335238096</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>730.5421999999995</v>
+        <v>605.9787000000005</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>223.2579799999999</v>
+        <v>253.4283323809522</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>634.1231199999995</v>
+        <v>650.03684</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>431.9118599999999</v>
+        <v>517.1354200000004</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>493.0428000000007</v>
+        <v>485.1769800000001</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>223.79798</v>
+        <v>225.62178</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>348.6327876190476</v>
+        <v>392.8893566666667</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>369.36492</v>
+        <v>368.85482</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>648.64924</v>
+        <v>611.9998399999996</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>637.8896799999999</v>
+        <v>630.1181800000001</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>581.0477800000001</v>
+        <v>542.6145200000002</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>359.07016</v>
+        <v>404.9238853333334</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>523.0887133333332</v>
+        <v>537.0459266666668</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>522.6668946666672</v>
+        <v>586.4782600000003</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>276.27766</v>
+        <v>276.0487733333333</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>399.0727266666672</v>
+        <v>413.6645133333336</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>464.8080695238086</v>
+        <v>467.5235333333335</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>352.05912</v>
+        <v>348.3694479999999</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>657.14028</v>
+        <v>793.4943599999997</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>223.0538333333333</v>
+        <v>234.9380533333334</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>169.731</v>
+        <v>170.4229333333333</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>492.3066533333333</v>
+        <v>439.4017466666667</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>66.77768</v>
+        <v>67.32744</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>577.91678</v>
+        <v>575.9302999999999</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>567.5279600000001</v>
+        <v>638.42078</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>277.7007416666667</v>
+        <v>291.7823</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>396.6160333333335</v>
+        <v>393.9449386666668</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>403.0323699999996</v>
+        <v>427.12825</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>401.924156809524</v>
+        <v>433.7002546666666</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>417.9006666666667</v>
+        <v>419.98644</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>318.065608</v>
+        <v>263.7978266666666</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>461.1337</v>
+        <v>418.2301866666668</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>508.8240133333334</v>
+        <v>532.9233733333333</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1051.0958</v>
+        <v>1043.360999999999</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>290.9986333333333</v>
+        <v>305.38086</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1100.195066666667</v>
+        <v>971.8296866666664</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>222.8975</v>
+        <v>225.0322933333333</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>312.7771000000001</v>
+        <v>352.19416</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>146.4842</v>
+        <v>146.26622</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>303.8389766666667</v>
+        <v>303.1860733333334</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>216.4574066666667</v>
+        <v>211.82872</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>230.0021</v>
+        <v>280.4343323809524</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>368.40844</v>
+        <v>437.2197266666666</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>244.6990133333333</v>
+        <v>231.7755</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>342.47802</v>
+        <v>349.71252</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>551.7284533333338</v>
+        <v>468.7682333333333</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>361.3289733333334</v>
+        <v>354.5853057142858</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>348.8185026666667</v>
+        <v>332.4145799999999</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>570.29976</v>
+        <v>529.9601200000005</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>657.2103199999996</v>
+        <v>631.2491600000002</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>500.3816399999999</v>
+        <v>514.6063666666665</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1122.494123809524</v>
+        <v>1161.213919999999</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>634.8710399999998</v>
+        <v>508.9059199999999</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>248.8841333333332</v>
+        <v>252.33304</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>259.6026533333333</v>
+        <v>290.3032</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>366.88032</v>
+        <v>407.3133260000001</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>151.5812053333333</v>
+        <v>148.1749799999999</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>331.8094333333332</v>
+        <v>275.13158</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>241.3343666666667</v>
+        <v>241.9722133333333</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>247.0308666666667</v>
+        <v>266.3479466666666</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>315.3045666666665</v>
+        <v>300.9284</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>368.8945533333335</v>
+        <v>354.74372</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>317.2427266666667</v>
+        <v>292.559564</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>326.4619516666667</v>
+        <v>314.2795366666666</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>319.187386666667</v>
+        <v>314.0183711904762</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>247.42762</v>
+        <v>224.4635599999999</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>372.7643866666668</v>
+        <v>362.5182466666669</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>292.2612799999999</v>
+        <v>275.8638733333333</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>225.0444152380952</v>
+        <v>248.48942</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>487.7101</v>
+        <v>449.4303600000002</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>239.3570266666667</v>
+        <v>238.1525714285715</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>556.0796599999999</v>
+        <v>558.7162233333333</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>268.95626</v>
+        <v>277.7311</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>256.7763453333333</v>
+        <v>255.1195695238093</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>301.3345866666667</v>
+        <v>318.68762</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>445.6404656666662</v>
+        <v>430.8409399999999</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>522.6488600000004</v>
+        <v>488.7745399999999</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>75.19535999999999</v>
+        <v>82.53523999999999</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>287.8375916666666</v>
+        <v>291.3290600000001</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>312.29548</v>
+        <v>307.3557</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>160.8234666666667</v>
+        <v>159.6549666666667</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>565.8451000000001</v>
+        <v>507.6329599999999</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>513.3544733333338</v>
+        <v>445.1730466666664</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1060.59592</v>
+        <v>1096.964</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>471.7801659999998</v>
+        <v>461.5765016666661</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>200.3797399999999</v>
+        <v>218.3243</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>433.8785399999999</v>
+        <v>385.112036666667</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>319.1299866666666</v>
+        <v>305.2471933333334</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>520.2705999999999</v>
+        <v>504.96084</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>262.9755733333333</v>
+        <v>263.6122533333333</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1229.35608</v>
+        <v>1129.97484</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>394.5457666666675</v>
+        <v>393.5686000000006</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2217.35276</v>
+        <v>2204.09452</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>303.27302</v>
+        <v>327.2681866666665</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>720.1896599999995</v>
+        <v>646.8662000000002</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>357.20576</v>
+        <v>357.0806733333334</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1311.06962</v>
+        <v>1297.03422</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>241.9085733333334</v>
+        <v>242.6873180952381</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>630.8523800000003</v>
+        <v>614.8514800000002</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>302.4563193333332</v>
+        <v>299.3078</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>344.7326000000004</v>
+        <v>321.6134013333335</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>234.23872</v>
+        <v>229.7672733333333</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>758.1245599999999</v>
+        <v>756.2203199999992</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>258.3578123809521</v>
+        <v>269.5557666666666</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>732.7167800000003</v>
+        <v>721.0856399999999</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>514.5455866666668</v>
+        <v>548.4477000000003</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>230.81898</v>
+        <v>287.94765</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>309.0682733333332</v>
+        <v>288.6764599999999</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>395.4280100000008</v>
+        <v>412.6283873333334</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>335.0482400000002</v>
+        <v>379.6494800000002</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>373.41544</v>
+        <v>371.2167733333333</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>333.2470266666668</v>
+        <v>306.0996</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>333.29076</v>
+        <v>330.9007933333334</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>258.8900133333332</v>
+        <v>254.8130333333332</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>407.62882</v>
+        <v>413.8455966666666</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>629.6636799999999</v>
+        <v>725.0965999999997</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>312.9368480000001</v>
+        <v>325.8652119999999</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>889.4019533333333</v>
+        <v>786.31952</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>321.73306</v>
+        <v>346.039124</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>248.98416</v>
+        <v>284.6410466666666</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>475.9996999999997</v>
+        <v>429.98375</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>417.0204586666665</v>
+        <v>406.5993333333333</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>336.27224</v>
+        <v>363.3852266666668</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>224.49308</v>
+        <v>274.77158</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>533.6441799999999</v>
+        <v>551.1208600000003</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>319.6202199999998</v>
+        <v>316.0467257142857</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>345.0558466666667</v>
+        <v>316.2114413333332</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>347.75553</v>
+        <v>314.6898899999998</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>265.61954</v>
+        <v>266.14536</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>308.5529133333333</v>
+        <v>307.920316</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>548.4438999999999</v>
+        <v>527.8132533333334</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>272.5690333333333</v>
+        <v>234.3504799999999</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>1015.59158</v>
+        <v>821.4443000000002</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>381.0536700000002</v>
+        <v>408.720612</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>495.4232266666663</v>
+        <v>377.1326466666667</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>844.3751200000002</v>
+        <v>906.21612</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>749.41848</v>
+        <v>626.89798</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>299.3347466666667</v>
+        <v>273.05254</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>286.2485066666666</v>
+        <v>301.20656</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>545.7731399999998</v>
+        <v>534.9752700000001</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>385.6287100000002</v>
+        <v>383.6660866666668</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>690.5932799999999</v>
+        <v>691.7318799999998</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>560.3769600000002</v>
+        <v>521.4837560000002</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>314.4120333333333</v>
+        <v>344.9611213333332</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>224.7515866666666</v>
+        <v>211.5853333333334</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>240.38328</v>
+        <v>244.54566</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>434.5003866666668</v>
+        <v>374.4787533333335</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>645.8942800000001</v>
+        <v>707.1448799999997</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>351.7687480000001</v>
+        <v>447.842975</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>187.8515999999999</v>
+        <v>187.5354</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>65.474</v>
+        <v>61.99568</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>451.1117</v>
+        <v>451.2508646666666</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>409.8942733333336</v>
+        <v>372.8151766666669</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>494.187</v>
+        <v>478.22594</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>264.7936666666667</v>
+        <v>256.0135923809523</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>948.66188</v>
+        <v>931.8679066666666</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>251.8489133333334</v>
+        <v>281.4697000000001</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>265.7893238095238</v>
+        <v>304.614586666667</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>247.1892133333333</v>
+        <v>250.5661466666665</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>299.81582</v>
+        <v>306.1324333333334</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>379.8681333333333</v>
+        <v>329.6906066666667</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>868.8735200000001</v>
+        <v>889.2219533333331</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>1200.551919999999</v>
+        <v>1235.653646666667</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>578.1005799999999</v>
+        <v>469.1152716666671</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>422.4015266666667</v>
+        <v>420.6270333333333</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>347.6935666666666</v>
+        <v>270.9144007142856</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>906.1559399999999</v>
+        <v>851.8671600000001</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>319.4732383333333</v>
+        <v>286.58008</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>302.914792</v>
+        <v>360.6013600000001</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>583.1453999999997</v>
+        <v>601.9337200000001</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>217.3020599999988</v>
+        <v>218.4085799999989</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>223.0640133333333</v>
+        <v>247.0052333333333</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>376.6486799999999</v>
+        <v>398.7055451428573</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>301.4754400000001</v>
+        <v>272.5785123809523</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>283.5693366666667</v>
+        <v>281.5847733333333</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>205.9920266666666</v>
+        <v>192.1952466666667</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>429.4154333333333</v>
+        <v>417.5608200000001</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>94.92402666666663</v>
+        <v>81.47146666666664</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>204.4918733333334</v>
+        <v>178.23414</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>904.1898485714282</v>
+        <v>1038.95588</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>297.7243005714286</v>
+        <v>299.2915773333334</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>453.3139600000005</v>
+        <v>540.7566800000001</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>470.44526</v>
+        <v>522.5117799999998</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>764.1901799999987</v>
+        <v>861.96142</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>419.7806313333329</v>
+        <v>412.92994</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>320.2977333333332</v>
+        <v>287.86226</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>562.3989000000005</v>
+        <v>568.9663133333336</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>288.5767066666667</v>
+        <v>256.7704533333334</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>281.0497333333333</v>
+        <v>287.0280104761905</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>342.20346</v>
+        <v>355.6479400000002</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>271.9413066666667</v>
+        <v>295.3738233333333</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>543.5006200000001</v>
+        <v>499.8776799999997</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>663.7317599999985</v>
+        <v>677.55362</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>650.2570199999999</v>
+        <v>649.53262</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>280.4749133333333</v>
+        <v>298.1167866666667</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>893.6348799999998</v>
+        <v>974.2645000000001</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>311.8665066666667</v>
+        <v>278.2211800000001</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>259.7117599999999</v>
+        <v>263.7955133333332</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>368.4181399999999</v>
+        <v>409.849036666667</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>819.6159800000001</v>
+        <v>994.9271533333333</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>208.4004133333332</v>
+        <v>225.9678333333333</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>798.42876</v>
+        <v>721.3143999999995</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>319.9214666666666</v>
+        <v>298.8895073333332</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>396.0009599999998</v>
+        <v>341.2417879999998</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>721.9112800000001</v>
+        <v>559.1743400000003</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>543.4970400000001</v>
+        <v>562.6632000000001</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>244.8392076190476</v>
+        <v>301.1681833333333</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>985.4397839999999</v>
+        <v>1218.437390666667</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>352.7873142857141</v>
+        <v>302.96277</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>255.27276</v>
+        <v>285.5299904761906</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>346.8211600000001</v>
+        <v>271.8195399999999</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>409.5388800000001</v>
+        <v>388.1717066666669</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>596.0041199999997</v>
+        <v>554.8072200000004</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>248.086279047619</v>
+        <v>242.9547533333333</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>403.0895700000002</v>
+        <v>539.1292333333333</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>361.0472866666667</v>
+        <v>341.1319533333331</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>317.504523</v>
+        <v>392.0134833333335</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>574.4758000000002</v>
+        <v>631.5509400000002</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>319.30288</v>
+        <v>312.8598</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>1156.60616</v>
+        <v>1263.27338</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>732.4694800000002</v>
+        <v>829.7922000000001</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>339.80151</v>
+        <v>346.4396333333333</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>631.1134400000002</v>
+        <v>589.3774400000002</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>464.5152900000003</v>
+        <v>459.6197200000002</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>465.7153266666661</v>
+        <v>534.0624080000005</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>309.6219</v>
+        <v>309.3190166666667</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1477.353600000001</v>
+        <v>1545.892133333334</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>497.6469800000004</v>
+        <v>487.0586350000003</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>582.8664200000003</v>
+        <v>604.6601000000003</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>318.4071533333333</v>
+        <v>322.9967320000001</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>462.32609</v>
+        <v>396.4505533333333</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>597.2515600000003</v>
+        <v>614.9122599999999</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>406.0075953333334</v>
+        <v>397.2073233333334</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>315.9578533333334</v>
+        <v>338.1937733333334</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>347.9558333333331</v>
+        <v>310.0753533333333</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>375.5871666666666</v>
+        <v>371.0068</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>1106.26896</v>
+        <v>1083.25766</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>824.5353533333326</v>
+        <v>815.9137466666668</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>396.5080453333334</v>
+        <v>397.0655303333335</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>223.88938</v>
+        <v>263.47477</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>297.1718033333333</v>
+        <v>249.26876</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>368.8343100000001</v>
+        <v>354.9434933333333</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>120.55836</v>
+        <v>128.24888</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>372.0027160000001</v>
+        <v>361.19872</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>283.8073133333333</v>
+        <v>287.29926</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>224.4513999999999</v>
+        <v>226.293</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>469.1891133333332</v>
+        <v>409.4453133333337</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>301.4875066666666</v>
+        <v>324.2092085714285</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>808.99754</v>
+        <v>686.5852599999995</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>537.1582400000004</v>
+        <v>580.8319799999999</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>1001.66182</v>
+        <v>926.7439800000001</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>816.5229600000001</v>
+        <v>691.2910999999999</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>336.2783828571428</v>
+        <v>310.77218</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>320.9280999999998</v>
+        <v>332.72836</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>270.30452</v>
+        <v>288.7737866666667</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>677.5139999999999</v>
+        <v>609.5524</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>242.3529266666666</v>
+        <v>305.58168</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>386.25492</v>
+        <v>359.94116</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>210.31452</v>
+        <v>197.292</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>577.99854</v>
+        <v>638.2034800000001</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>277.64752</v>
+        <v>284.6084400000001</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>466.6701700000002</v>
+        <v>433.4247866190472</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>192.72248</v>
+        <v>194.29952</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>478.5974413333331</v>
+        <v>451.22572</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>641.7792800000002</v>
+        <v>674.1224999999997</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>512.4216200000001</v>
+        <v>503.6547266666668</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>297.70642</v>
+        <v>288.8263733333334</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>411.3373842857143</v>
+        <v>406.5269333333334</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>371.6238893333333</v>
+        <v>378.6592333333335</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>407.6877266666672</v>
+        <v>430.5713366666667</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>511.0384533333333</v>
+        <v>453.1666713333333</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>313.2640533333334</v>
+        <v>334.1979933333333</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>529.3375199999997</v>
+        <v>546.1137000000004</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>456.5075799999995</v>
+        <v>426.5765759999999</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>495.405206666667</v>
+        <v>423.5421466666662</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>702.5229399999998</v>
+        <v>748.4506599999997</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>609.2031600000001</v>
+        <v>607.4950800000005</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>362.0593053333334</v>
+        <v>321.6642133333332</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>292.8056666666666</v>
+        <v>285.44026</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>500.539113333333</v>
+        <v>507.7015899999999</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>260.5565</v>
+        <v>260.5829733333333</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>771.17286</v>
+        <v>789.7246200000001</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>306.02006</v>
+        <v>247.0249266666666</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>4448.634320000007</v>
+        <v>4514.736860000003</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>246.4536600000001</v>
+        <v>292.1301999999999</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>751.2951999999998</v>
+        <v>747.5086599999998</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>262.65092</v>
+        <v>195.6359666666666</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>257.7820866666667</v>
+        <v>238.2692466666666</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>770.1290600000001</v>
+        <v>698.8501999999999</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>244.3002066666667</v>
+        <v>262.5495733333333</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>554.8917800000002</v>
+        <v>678.0412600000004</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>325.74748</v>
+        <v>315.5630661904763</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>292.3755866666667</v>
+        <v>243.0678333333331</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>409.5388800000001</v>
+        <v>388.1717066666669</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>291.8116266666667</v>
+        <v>313.20505</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1667.074813333333</v>
+        <v>1339.66228</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>298.8717666666665</v>
+        <v>298.6525000000001</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>398.2280866666675</v>
+        <v>397.2994814761908</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>451.0178266666667</v>
+        <v>450.3536999999999</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>193.7005057142856</v>
+        <v>224.1390866666666</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>442.8320933333333</v>
+        <v>442.0704986666666</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>295.27666</v>
+        <v>246.15058</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>829.0984599999999</v>
+        <v>876.49688</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>724.6467399999999</v>
+        <v>770.3494199999997</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>237.10174</v>
+        <v>322.6646466666668</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>294.920669</v>
+        <v>325.12454</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>326.9327466666666</v>
+        <v>302.67542</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>445.9973800000003</v>
+        <v>424.6558933333337</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>442.2043333333331</v>
+        <v>473.2168599999998</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>683.66502</v>
+        <v>666.2031600000001</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>605.3493000000001</v>
+        <v>622.11886</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>218.1470333333333</v>
+        <v>215.5281399999999</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>399.8027266666667</v>
+        <v>356.4287866666667</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>309.0018056666667</v>
+        <v>299.6751000000001</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>417.85222</v>
+        <v>427.4911088571425</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>296.0872333333334</v>
+        <v>302.975193</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>263.2142499999999</v>
+        <v>282.0274853333331</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>971.1334399999998</v>
+        <v>966.4096866666667</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>508.0771600000001</v>
+        <v>536.7297800000003</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>572.6854400000002</v>
+        <v>526.3621200000001</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>602.0203200000002</v>
+        <v>594.4523399999999</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>311.4032066666668</v>
+        <v>322.7630323809521</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>839.2516400000002</v>
+        <v>875.4014399999999</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>669.0839399999996</v>
+        <v>616.0904599999999</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>568.5006600000002</v>
+        <v>585.3221000000003</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>306.8370520000001</v>
+        <v>309.3162516666667</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>212.9688533333334</v>
+        <v>240.7236666666666</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>475.339253333333</v>
+        <v>542.1466333333332</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>496.7848626666669</v>
+        <v>510.7361999999997</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>372.1797733333335</v>
+        <v>362.5042800000001</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>489.8902</v>
+        <v>417.105135</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>697.4988600000001</v>
+        <v>557.6465800000003</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>245.67474</v>
+        <v>246.7942171428571</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>427.9903853333334</v>
+        <v>370.7420733333335</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>467.1872066666668</v>
+        <v>436.0500199999999</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>321.7647626666666</v>
+        <v>320.398659047619</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>468.3257600000001</v>
+        <v>578.7086800000004</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>442.5845499999999</v>
+        <v>447.9583600000006</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>141.7559321428571</v>
+        <v>154.1541133333333</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>483.10882</v>
+        <v>443.1391839999999</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>473.5942383333335</v>
+        <v>564.3000900000001</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>949.1255200000001</v>
+        <v>761.0628533333334</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>379.7981600000001</v>
+        <v>438.7727</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>197.2261799999999</v>
+        <v>213.27974</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>359.61412</v>
+        <v>359.2104333333333</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>255.0780304761905</v>
+        <v>253.1527133333333</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>890.15426</v>
+        <v>967.8084599999999</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>915.9843400000004</v>
+        <v>1043.45016</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>596.11574</v>
+        <v>604.5160400000004</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>838.4008</v>
+        <v>863.7545399999993</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>784.8519</v>
+        <v>863.2293466666665</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1097.69492</v>
+        <v>1173.12872</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>427.5920866666666</v>
+        <v>384.6588050000001</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>464.7487800000008</v>
+        <v>478.6801300000001</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>882.3264600000001</v>
+        <v>811.9812599999999</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>397.2693386666666</v>
+        <v>251.17638</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>281.4045799999999</v>
+        <v>276.4273733333333</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>346.9162333333333</v>
+        <v>372.9942200000001</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>511.1301799999998</v>
+        <v>499.9774000000008</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>451.7718599999998</v>
+        <v>448.6015199999999</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>261.9019676190476</v>
+        <v>284.26892</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>277.0824546666666</v>
+        <v>316.0882199999999</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>332.1159343333332</v>
+        <v>364.08576</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2297.71476</v>
+        <v>2297.152</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>491.5652200000001</v>
+        <v>495.3918</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>443.4514000000004</v>
+        <v>491.8419916666664</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>496.2221400000004</v>
+        <v>576.3532</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>884.4811733333332</v>
+        <v>862.95264</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>871.1890599999991</v>
+        <v>937.2572266666673</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>312.9696766666669</v>
+        <v>305.5828600000002</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>771.64224</v>
+        <v>827.271</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>892.7994266666659</v>
+        <v>860.74176</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1184.509544</v>
+        <v>987.3330399999999</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>273.9706899999999</v>
+        <v>287.3705533333333</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>257.6162933333333</v>
+        <v>249.47722</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>273.4544933333333</v>
+        <v>292.0476333333334</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>288.1934600000001</v>
+        <v>272.0399599999998</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>311.57456</v>
+        <v>293.4097400000001</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>119.31</v>
+        <v>119.63284</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>217.2649666666667</v>
+        <v>220.14644</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>330.4944385714285</v>
+        <v>359.8244999999999</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>467.3348999999999</v>
+        <v>495.2787483333334</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>549.0082600000002</v>
+        <v>579.7949</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>217.6472999999999</v>
+        <v>260.9402533333333</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>976.4778399999999</v>
+        <v>1014.40914</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>177.75084</v>
+        <v>177.8503599999999</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>269.0328066666667</v>
+        <v>269.99774</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>354.0851599999999</v>
+        <v>312.236706</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>568.5335600000001</v>
+        <v>571.41036</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>401.6730680000003</v>
+        <v>452.6865311111112</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>467.0958800000001</v>
+        <v>488.5653623809525</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>452.0331200000001</v>
+        <v>451.1717800000001</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1153.874013333333</v>
+        <v>1116.037745142857</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>320.6508076190474</v>
+        <v>320.35683</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>280.3261733333333</v>
+        <v>291.3778999999999</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>492.6444666666668</v>
+        <v>467.57712</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>432.3078000000001</v>
+        <v>451.9194099999998</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>418.0006280000001</v>
+        <v>513.1758600000002</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>922.71696</v>
+        <v>882.521</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>538.0140200000004</v>
+        <v>504.9083950000004</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>951.27976</v>
+        <v>887.54008</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>398.7410266666666</v>
+        <v>321.2528933333335</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>705.5866599999999</v>
+        <v>751.5739799999999</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>262.6161199999999</v>
+        <v>243.01916</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>640.5756200000001</v>
+        <v>689.9384599999998</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>340.3877066666666</v>
+        <v>383.540848666667</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>642.7740999999999</v>
+        <v>571.2167799999999</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>1145.774504</v>
+        <v>1380.520526666667</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>682.75414</v>
+        <v>801.27176</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>402.9648866666668</v>
+        <v>407.9587026666667</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>293.1339950000001</v>
+        <v>319.5754</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>212.53868</v>
+        <v>223.23028</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>501.3665200000004</v>
+        <v>585.1463600000002</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>597.1893800000001</v>
+        <v>602.4043200000008</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1349.48118</v>
+        <v>1544.539320000001</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>328.6658933333333</v>
+        <v>356.3520199999999</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>987.3288066666664</v>
+        <v>1203.175126666666</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>230.278</v>
+        <v>237.7182933333334</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>569.83362</v>
+        <v>671.4350999999998</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>348.73736</v>
+        <v>343.4528959999998</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>292.3899849999999</v>
+        <v>285.14831</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>206.7781533333332</v>
+        <v>223.80032</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>232.8011399999998</v>
+        <v>241.6702399999995</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>868.8187600000003</v>
+        <v>853.7873066666667</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>292.3357066666664</v>
+        <v>281.8727989999999</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>455.1208600000001</v>
+        <v>445.9760279999998</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>609.44302</v>
+        <v>757.1293200000001</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>650.30966</v>
+        <v>675.0562000000001</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>371.53356</v>
+        <v>380.03694</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>211.9224695238095</v>
+        <v>222.0418333333333</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>656.3018199999997</v>
+        <v>658.9490999999997</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>434.6740533333329</v>
+        <v>413.4345399999999</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>537.5506199999998</v>
+        <v>582.2882000000001</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>963.6572600000001</v>
+        <v>973.82428</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>274.7920733333333</v>
+        <v>279.871969</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>210.4147466666667</v>
+        <v>217.7656933333333</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>480.2418616666667</v>
+        <v>455.3850680000002</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>234.1953771428571</v>
+        <v>224.0337333333334</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>350.981097142857</v>
+        <v>297.4811800000001</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>442.950812</v>
+        <v>400.485566666667</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>712.8489999999999</v>
+        <v>895.2520266666667</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>572.28004</v>
+        <v>667.4139200000002</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>709.8372199999999</v>
+        <v>566.5465599999995</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>117.1638400000001</v>
+        <v>127.81925</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>376.8642933333335</v>
+        <v>359.6381</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>239.61746</v>
+        <v>241.8333799999998</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>322.1371866666667</v>
+        <v>308.6066153333331</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>224.9313333333334</v>
+        <v>225.5657666666667</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1517.1156</v>
+        <v>1535.272466666667</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>507.1349499999999</v>
+        <v>530.8445400000001</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>661.5166199999999</v>
+        <v>706.5305400000001</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>411.6867123809525</v>
+        <v>500.5239509999997</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>655.4233199999999</v>
+        <v>597.52624</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>509.2745200000007</v>
+        <v>585.2665200000002</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>150.251228</v>
+        <v>132.23268</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>284.0478616666666</v>
+        <v>308.6223266666665</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>211.0568</v>
+        <v>233.70744</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>352.8490599999998</v>
+        <v>331.4608599999999</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>311.6953666666664</v>
+        <v>294.3227733333333</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>371.52236</v>
+        <v>448.8949663333329</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>360.0793866666666</v>
+        <v>414.1049333333335</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>194.6078838095239</v>
+        <v>197.3169133333334</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>980.0793999999999</v>
+        <v>856.9433200000004</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>700.0473799999994</v>
+        <v>720.1827000000003</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>349.6253866666668</v>
+        <v>367.81492</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>318.5667800000001</v>
+        <v>316.0491876666668</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>267.4036266666666</v>
+        <v>269.2676066666666</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>564.4743933333334</v>
+        <v>515.8280573333333</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>308.6543999999998</v>
+        <v>308.67612</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>992.2241799999999</v>
+        <v>996.06384</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>780.6494200000001</v>
+        <v>779.6223600000001</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>155.1157966666667</v>
+        <v>155.771818</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>275.2464666666667</v>
+        <v>265.9484</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>244.49522</v>
+        <v>235.2691</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>697.3299199999991</v>
+        <v>557.9820800000002</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>853.8984399999999</v>
+        <v>838.1187800000002</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>379.9960266666669</v>
+        <v>368.6299666666667</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>276.4734266666667</v>
+        <v>258.96024</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>255.0644599999999</v>
+        <v>361.7847799999999</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>256.0680733333334</v>
+        <v>280.0302133333333</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>262.8383733333333</v>
+        <v>254.8434333333333</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1345.11818</v>
+        <v>1708.73798</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>338.0461026666667</v>
+        <v>302.8040066666666</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>1004.5804</v>
+        <v>1012.104846666666</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>590.11832</v>
+        <v>586.3873133333336</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>119.38374</v>
+        <v>119.98071</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>321.7193466666666</v>
+        <v>329.47918</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>247.5244066666667</v>
+        <v>271.78466</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>316.3996349999998</v>
+        <v>306.6422666666666</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>715.6972800000001</v>
+        <v>623.4660800000001</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>258.5621733333333</v>
+        <v>230.0285066666666</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1405.676039999999</v>
+        <v>1311.06878</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>425.5477000000003</v>
+        <v>412.620511333334</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>971.1334399999998</v>
+        <v>966.4096866666667</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>159.13268</v>
+        <v>148.1374179999999</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>343.6902066666668</v>
+        <v>359.1261</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>405.12483</v>
+        <v>421.7077066666666</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>448.90288</v>
+        <v>401.6222580000002</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2609.050479999998</v>
+        <v>2589.479299999999</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>1067.588726666667</v>
+        <v>1166.985130666667</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>429.2215733333337</v>
+        <v>391.8167500000003</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>347.08702</v>
+        <v>378.0378533333333</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>603.8634000000001</v>
+        <v>568.7863999999997</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>248.1398266666666</v>
+        <v>243.2627066666667</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1599.507406666667</v>
+        <v>1642.672466666668</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>378.6524759999999</v>
+        <v>365.0219139047618</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>563.6306399999996</v>
+        <v>596.6622200000004</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>152.7368426666666</v>
+        <v>154.2998171428571</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>214.3438</v>
+        <v>227.58508</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>295.635271</v>
+        <v>304.7458566666666</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>592.4186</v>
+        <v>588.19312</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>473.455572</v>
+        <v>519.8335066666667</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>780.4812800000001</v>
+        <v>785.3369000000001</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>103.3320666666667</v>
+        <v>129.27383</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>354.0389266666664</v>
+        <v>378.2296200000001</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>287.3667599999998</v>
+        <v>297.8273676666665</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>299.3312466666667</v>
+        <v>283.63908</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>297.7764733333335</v>
+        <v>304.3942800000002</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>377.3047300000001</v>
+        <v>381.6303313333333</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>466.0260533333333</v>
+        <v>464.0658699999998</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>1445.63228</v>
+        <v>1123.160866666667</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>419.2442000000001</v>
+        <v>411.1084440000001</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>125.01528</v>
+        <v>128.04434</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>874.8883866666665</v>
+        <v>894.0038133333333</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>922.0825999999995</v>
+        <v>1001.77682</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>289.29012</v>
+        <v>324.9157373333334</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>300.99976</v>
+        <v>248.29008</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>315.5654766666665</v>
+        <v>339.5365666666666</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>458.8864699999997</v>
+        <v>468.5649533333327</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>457.32274</v>
+        <v>446.8931000000002</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>590.1334399999998</v>
+        <v>579.7033800000002</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>242.4532333333333</v>
+        <v>249.5162990476189</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>552.2704799999999</v>
+        <v>530.91946</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>520.4353199999999</v>
+        <v>599.0943600000002</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>965.6881866666668</v>
+        <v>963.76152</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>553.8468600000002</v>
+        <v>520.3441399999999</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>281.5506933333333</v>
+        <v>293.9786409999999</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2729.209399999999</v>
+        <v>2697.02312</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>233.6307542857143</v>
+        <v>247.6942733333333</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>446.1795</v>
+        <v>350.6915199999997</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>367.37466</v>
+        <v>370.6187933333333</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>168.28336</v>
+        <v>172.77512</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>362.0595186666667</v>
+        <v>331.1929466666667</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>567.6905800000001</v>
+        <v>441.1325399999998</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>647.6808199999999</v>
+        <v>728.4521799999997</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>340.8039666666665</v>
+        <v>334.7864733333332</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>313.6993433333334</v>
+        <v>274.6349066666666</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>709.0048399999998</v>
+        <v>676.2789799999997</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>444.3720600000001</v>
+        <v>423.1356480000001</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>589.4628</v>
+        <v>539.8342799999996</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1840.710366666667</v>
+        <v>1780.8346</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>397.4237600000001</v>
+        <v>380.4540233333334</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>117.68412</v>
+        <v>118.44586</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>152.7915799999999</v>
+        <v>161.84459</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>399.3108500000004</v>
+        <v>331.5348213333334</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>695.4450000000003</v>
+        <v>801.6965199999999</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>268.0247733333332</v>
+        <v>264.56104</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>273.6396971428571</v>
+        <v>290.49498</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>319.1675976666667</v>
+        <v>348.7943466666665</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>328.5423266666664</v>
+        <v>343.76062</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>131.8795</v>
+        <v>143.89895</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>1162.74614</v>
+        <v>1189.23476</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>353.3983359999999</v>
+        <v>364.7962466666667</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>268.9005133333332</v>
+        <v>236.73654</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>661.0224599999996</v>
+        <v>624.3595800000001</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>292.616362</v>
+        <v>269.4557119047619</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>338.2824200000001</v>
+        <v>361.6240599999999</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>900.4610399999999</v>
+        <v>757.6169199999999</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>933.2706666666667</v>
+        <v>949.9675999999999</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>274.3535533333333</v>
+        <v>282.3168666666666</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1149.3073</v>
+        <v>1060.76834</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>387.8296646666671</v>
+        <v>375.3575400000001</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>419.6298266666668</v>
+        <v>381.0873533333335</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>364.7277666666666</v>
+        <v>428.3303466666667</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>510.84838</v>
+        <v>554.551696</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>694.5105999999998</v>
+        <v>807.4594466666666</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>312.9538633333333</v>
+        <v>284.2623169999999</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>541.9701400000004</v>
+        <v>537.2010600000001</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>685.2686199999995</v>
+        <v>661.39106</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>538.7626600000001</v>
+        <v>460.8026200000003</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>442.0564809999998</v>
+        <v>409.4821980000002</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>486.0945400000001</v>
+        <v>512.9874999999998</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>257.6686333333332</v>
+        <v>269.7390733333331</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>406.4910046666667</v>
+        <v>334.18166</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>939.88206</v>
+        <v>918.68552</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>705.3198199999995</v>
+        <v>666.8372800000001</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>159.3113166666667</v>
+        <v>175.17824</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>712.9835000000002</v>
+        <v>675.2984399999999</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>289.45766</v>
+        <v>279.4205</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>425.4604933333334</v>
+        <v>436.61278</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2433.688000000001</v>
+        <v>2414.54466</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>577.8787899999999</v>
+        <v>567.9678800000002</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>580.5494200000001</v>
+        <v>520.83336</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>369.9426095238096</v>
+        <v>415.2581303333334</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>841.18592</v>
+        <v>858.8599999999999</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1764.307920000003</v>
+        <v>1784.189020000001</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>186.38446</v>
+        <v>184.078032</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>736.6865199999991</v>
+        <v>573.7430599999999</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>303.9140800000004</v>
+        <v>294.7015666666667</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>783.5802133333333</v>
+        <v>761.7654200000001</v>
       </c>
     </row>
   </sheetData>
